--- a/仕様書.xlsx
+++ b/仕様書.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\卒業制作\sotsugyou_time_kato\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8712"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8712" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="概要" sheetId="1" r:id="rId1"/>
+    <sheet name="分担" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>モデル</t>
     <phoneticPr fontId="1"/>
@@ -96,6 +97,81 @@
   </si>
   <si>
     <t>しよーしょ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>加藤</t>
+    <rPh sb="0" eb="2">
+      <t>カトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鶴間</t>
+    <rPh sb="0" eb="2">
+      <t>ツルマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>川村</t>
+    <rPh sb="0" eb="2">
+      <t>カワムラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>和田</t>
+    <rPh sb="0" eb="2">
+      <t>ワダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飯塚</t>
+    <rPh sb="0" eb="2">
+      <t>イイヅカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>佐藤り</t>
+    <rPh sb="0" eb="2">
+      <t>サトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>佐藤し</t>
+    <rPh sb="0" eb="2">
+      <t>サトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役割</t>
+    <rPh sb="0" eb="2">
+      <t>ヤクワリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エフェクト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数字</t>
+    <rPh sb="0" eb="2">
+      <t>スウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プログラマー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プログラマー(メイン)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -140,7 +216,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -313,13 +389,103 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -339,6 +505,36 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -350,6 +546,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -358,21 +557,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -656,7 +840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
@@ -668,34 +852,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="19"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B5" s="5" t="s">
@@ -748,12 +932,12 @@
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="12"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="23"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B13" s="5" t="s">
@@ -776,18 +960,18 @@
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="14"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="9"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="19"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B18" s="5"/>
@@ -824,4 +1008,83 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="20.8984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B4" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B6" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="11"/>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="11"/>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B8" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="11"/>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B9" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/仕様書.xlsx
+++ b/仕様書.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\卒業制作\sotsugyou_time_kato\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8712" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8712"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>モデル</t>
     <phoneticPr fontId="1"/>
@@ -172,6 +172,13 @@
   </si>
   <si>
     <t>プログラマー(メイン)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地面</t>
+    <rPh sb="0" eb="2">
+      <t>ジメン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -840,8 +847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -948,7 +955,9 @@
       <c r="E13" s="6"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="3"/>
@@ -1014,7 +1023,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>

--- a/仕様書.xlsx
+++ b/仕様書.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\sotsugyou_time_kato\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8712" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8712"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>モデル</t>
     <phoneticPr fontId="1"/>
@@ -172,6 +172,10 @@
   </si>
   <si>
     <t>プログラマー(メイン)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -840,8 +844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -887,7 +891,9 @@
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
@@ -895,7 +901,9 @@
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="3"/>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
@@ -903,7 +911,9 @@
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="3"/>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
@@ -911,13 +921,19 @@
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="3"/>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="3"/>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B10" s="1"/>
@@ -1014,7 +1030,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>

--- a/仕様書.xlsx
+++ b/仕様書.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8712"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8712" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
     <sheet name="分担" sheetId="2" r:id="rId2"/>
+    <sheet name="ガントチャート" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>モデル</t>
     <phoneticPr fontId="1"/>
@@ -81,10 +82,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アイテム</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>エフェクト</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -160,17 +157,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>数字</t>
-    <rPh sb="0" eb="2">
-      <t>スウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プログラマー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>プログラマー(メイン)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -179,6 +165,81 @@
     <rPh sb="0" eb="2">
       <t>ジメン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー各色用意</t>
+    <rPh sb="5" eb="7">
+      <t>カクショク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヨウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>普通の(ピンク？)と高得点の(金)</t>
+    <rPh sb="0" eb="2">
+      <t>フツウ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>コウトクテン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>キン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外壁</t>
+    <rPh sb="0" eb="2">
+      <t>ガイヘキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>甲羅的な</t>
+    <rPh sb="0" eb="2">
+      <t>コウラ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バナナ的な</t>
+    <rPh sb="3" eb="4">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プログラマー(メイン)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プログラマー(サブ)、モデル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モデル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モデル、テクスチャ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モデル、サウンド</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -186,7 +247,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,8 +263,16 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -222,8 +291,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -403,10 +478,96 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -419,66 +580,6 @@
         <color indexed="64"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -492,7 +593,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -526,44 +627,56 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -847,8 +960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -859,12 +972,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
+      <c r="B2" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="9" t="s">
@@ -881,28 +994,36 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="19"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="17"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
+      <c r="D5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="6">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="3"/>
+      <c r="D6" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="22">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
@@ -910,27 +1031,43 @@
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="3"/>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="3"/>
+      <c r="D8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="3"/>
+      <c r="D9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="3"/>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B11" s="2"/>
@@ -939,28 +1076,32 @@
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="23"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="21"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B13" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="6"/>
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="3"/>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B15" s="1"/>
@@ -975,12 +1116,12 @@
       <c r="E16" s="8"/>
     </row>
     <row r="17" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B17" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="19"/>
+      <c r="B17" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="17"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B18" s="5"/>
@@ -1023,72 +1164,78 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C10"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="20.8984375" customWidth="1"/>
+    <col min="3" max="3" width="24.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B3" s="16" t="s">
+    <row r="3" spans="2:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B3" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B8" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B10" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B4" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B6" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="11"/>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B7" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="11"/>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B8" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="11"/>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B9" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1096,4 +1243,17 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/仕様書.xlsx
+++ b/仕様書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8712" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8712" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>モデル</t>
     <phoneticPr fontId="1"/>
@@ -228,10 +228,6 @@
   </si>
   <si>
     <t>プログラマー(サブ)、モデル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>モデル</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1168,8 +1164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1215,7 +1211,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.45">
@@ -1231,7 +1227,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -1253,7 +1249,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1261,7 +1257,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/仕様書.xlsx
+++ b/仕様書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8712" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8712" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>モデル</t>
     <phoneticPr fontId="1"/>
@@ -236,10 +236,6 @@
   </si>
   <si>
     <t>モデル、サウンド</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>あああ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1164,8 +1160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1247,20 +1243,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/仕様書.xlsx
+++ b/仕様書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8712" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8712"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>モデル</t>
     <phoneticPr fontId="1"/>
@@ -237,6 +237,15 @@
   <si>
     <t>モデル、サウンド</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>car.x</t>
+  </si>
+  <si>
+    <t>ItemBOX.x</t>
+  </si>
+  <si>
+    <t>floor_01.jpg</t>
   </si>
 </sst>
 </file>
@@ -956,8 +965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1001,7 +1010,9 @@
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="D5" s="5" t="s">
         <v>23</v>
       </c>
@@ -1025,7 +1036,9 @@
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="D7" s="1"/>
       <c r="E7" s="3">
         <v>1</v>
@@ -1093,7 +1106,9 @@
       <c r="B14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="D14" s="1"/>
       <c r="E14" s="3">
         <v>1</v>
@@ -1245,8 +1260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/仕様書.xlsx
+++ b/仕様書.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
   <si>
     <t>モデル</t>
     <phoneticPr fontId="1"/>
@@ -246,6 +246,72 @@
   </si>
   <si>
     <t>floor_01.jpg</t>
+  </si>
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リザルト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BGM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エンジン音</t>
+    <rPh sb="4" eb="5">
+      <t>オン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラッシュ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間切れ</t>
+    <rPh sb="0" eb="2">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム取得</t>
+    <rPh sb="4" eb="6">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>決定</t>
+    <rPh sb="0" eb="2">
+      <t>ケッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -963,10 +1029,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E21"/>
+  <dimension ref="B2:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1153,17 +1219,115 @@
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="4"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B22" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="23"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B26" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="23"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B27" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B28" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B29" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B30" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B31" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B33" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="B26:E26"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B22:E22"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/仕様書.xlsx
+++ b/仕様書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8712"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8712" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="72">
   <si>
     <t>モデル</t>
     <phoneticPr fontId="1"/>
@@ -153,10 +153,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>エフェクト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>プログラマー(メイン)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -223,19 +219,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>プログラマー(メイン)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プログラマー(サブ)、モデル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>モデル、テクスチャ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>モデル、サウンド</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -310,6 +294,183 @@
     <t>決定</t>
     <rPh sb="0" eb="2">
       <t>ケッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ｶﾞﾝﾄﾁｬｰﾄ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>加藤</t>
+    <rPh sb="0" eb="2">
+      <t>カトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鶴間</t>
+    <rPh sb="0" eb="2">
+      <t>ツルマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飯塚</t>
+    <rPh sb="0" eb="2">
+      <t>イイヅカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>和田</t>
+    <rPh sb="0" eb="2">
+      <t>ワダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マスター〆切！！！</t>
+    <rPh sb="4" eb="6">
+      <t>シメキリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>β版〆切！！！！！！</t>
+    <rPh sb="1" eb="2">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シメキリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>α版〆切！！！！！</t>
+    <rPh sb="1" eb="2">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シメキリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロト版〆切！！！！</t>
+    <rPh sb="3" eb="4">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シメキリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今日の日付→</t>
+    <rPh sb="0" eb="2">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本の担当</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プログラマー(メイン)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プログラマー(メイン)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エフェクト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エフェクト(派遣)</t>
+    <rPh sb="6" eb="8">
+      <t>ハケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モデル、テクスチャ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>川村</t>
+    <rPh sb="0" eb="2">
+      <t>カワムラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モデル、サウンド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>佐藤瞭</t>
+    <rPh sb="0" eb="2">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>リョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>佐藤秀</t>
+    <rPh sb="0" eb="2">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モデル、サウンド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プログラマー(サブ)、モデル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プログラマー(サブ)、モデル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モデル、テクスチャ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モデル、テクスチャ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕様書作成</t>
+    <rPh sb="0" eb="3">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -318,7 +479,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -342,8 +503,34 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -368,8 +555,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -658,13 +863,237 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -748,12 +1177,194 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1031,7 +1642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -1077,10 +1688,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="6">
         <v>4</v>
@@ -1092,7 +1703,7 @@
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" s="15">
         <v>2</v>
@@ -1103,7 +1714,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="3">
@@ -1112,11 +1723,11 @@
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>
@@ -1124,11 +1735,11 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" s="3">
         <v>1</v>
@@ -1136,7 +1747,7 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1170,10 +1781,10 @@
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="3">
@@ -1226,7 +1837,7 @@
     </row>
     <row r="22" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B22" s="21" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
@@ -1234,7 +1845,7 @@
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B23" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -1242,7 +1853,7 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1250,7 +1861,7 @@
     </row>
     <row r="25" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B25" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1258,7 +1869,7 @@
     </row>
     <row r="26" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B26" s="21" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
@@ -1266,7 +1877,7 @@
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B27" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -1274,7 +1885,7 @@
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B28" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -1282,7 +1893,7 @@
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B29" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -1290,7 +1901,7 @@
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B30" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -1298,7 +1909,7 @@
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B31" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -1306,7 +1917,7 @@
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B32" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1314,7 +1925,7 @@
     </row>
     <row r="33" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B33" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -1340,7 +1951,7 @@
   <dimension ref="B2:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1362,7 +1973,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.45">
@@ -1370,7 +1981,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.45">
@@ -1378,7 +1989,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.45">
@@ -1386,7 +1997,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.45">
@@ -1394,7 +2005,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.45">
@@ -1402,7 +2013,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -1410,7 +2021,7 @@
         <v>18</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1422,15 +2033,1489 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:J110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="12.19921875" customWidth="1"/>
+    <col min="3" max="9" width="23.5" customWidth="1"/>
+    <col min="10" max="11" width="21.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="44">
+        <f ca="1">TODAY()</f>
+        <v>44839</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B3" s="46"/>
+      <c r="C3" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="41" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="42"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B5" s="57">
+        <v>44838</v>
+      </c>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="51"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B6" s="33">
+        <v>44839</v>
+      </c>
+      <c r="C6" s="50"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B7" s="32">
+        <v>44840</v>
+      </c>
+      <c r="C7" s="48"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="49"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B8" s="32">
+        <v>44841</v>
+      </c>
+      <c r="C8" s="48"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B9" s="32">
+        <v>44842</v>
+      </c>
+      <c r="C9" s="48"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B10" s="32">
+        <v>44843</v>
+      </c>
+      <c r="C10" s="48"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B11" s="32">
+        <v>44844</v>
+      </c>
+      <c r="C11" s="48"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B12" s="32">
+        <v>44845</v>
+      </c>
+      <c r="C12" s="48"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B13" s="32">
+        <v>44846</v>
+      </c>
+      <c r="C13" s="48"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B14" s="32">
+        <v>44847</v>
+      </c>
+      <c r="C14" s="48"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B15" s="32">
+        <v>44848</v>
+      </c>
+      <c r="C15" s="48"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B16" s="32">
+        <v>44849</v>
+      </c>
+      <c r="C16" s="48"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B17" s="32">
+        <v>44850</v>
+      </c>
+      <c r="C17" s="48"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B18" s="32">
+        <v>44851</v>
+      </c>
+      <c r="C18" s="48"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B19" s="32">
+        <v>44852</v>
+      </c>
+      <c r="C19" s="48"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B20" s="32">
+        <v>44853</v>
+      </c>
+      <c r="C20" s="48"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B21" s="32">
+        <v>44854</v>
+      </c>
+      <c r="C21" s="48"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B22" s="32">
+        <v>44855</v>
+      </c>
+      <c r="C22" s="48"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B23" s="32">
+        <v>44856</v>
+      </c>
+      <c r="C23" s="48"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B24" s="32">
+        <v>44857</v>
+      </c>
+      <c r="C24" s="48"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B25" s="32">
+        <v>44858</v>
+      </c>
+      <c r="C25" s="48"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B26" s="32">
+        <v>44859</v>
+      </c>
+      <c r="C26" s="48"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B27" s="32">
+        <v>44860</v>
+      </c>
+      <c r="C27" s="48"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B28" s="32">
+        <v>44861</v>
+      </c>
+      <c r="C28" s="48"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B29" s="32">
+        <v>44862</v>
+      </c>
+      <c r="C29" s="48"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B30" s="32">
+        <v>44863</v>
+      </c>
+      <c r="C30" s="48"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B31" s="32">
+        <v>44864</v>
+      </c>
+      <c r="C31" s="48"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B32" s="32">
+        <v>44865</v>
+      </c>
+      <c r="C32" s="48"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B33" s="32">
+        <v>44866</v>
+      </c>
+      <c r="C33" s="48"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B34" s="32">
+        <v>44867</v>
+      </c>
+      <c r="C34" s="48"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="53"/>
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B35" s="32">
+        <v>44868</v>
+      </c>
+      <c r="C35" s="48"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="53"/>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B36" s="39">
+        <v>44869</v>
+      </c>
+      <c r="C36" s="48"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="53"/>
+      <c r="J36" s="38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B37" s="32">
+        <v>44870</v>
+      </c>
+      <c r="C37" s="48"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B38" s="32">
+        <v>44871</v>
+      </c>
+      <c r="C38" s="48"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="53"/>
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B39" s="32">
+        <v>44872</v>
+      </c>
+      <c r="C39" s="48"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="53"/>
+      <c r="J39" s="1"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B40" s="32">
+        <v>44873</v>
+      </c>
+      <c r="C40" s="48"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="53"/>
+      <c r="J40" s="1"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B41" s="32">
+        <v>44874</v>
+      </c>
+      <c r="C41" s="48"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="53"/>
+      <c r="J41" s="1"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B42" s="32">
+        <v>44875</v>
+      </c>
+      <c r="C42" s="48"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="53"/>
+      <c r="J42" s="1"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B43" s="32">
+        <v>44876</v>
+      </c>
+      <c r="C43" s="48"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="53"/>
+      <c r="J43" s="1"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B44" s="32">
+        <v>44877</v>
+      </c>
+      <c r="C44" s="48"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="53"/>
+      <c r="J44" s="1"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B45" s="32">
+        <v>44878</v>
+      </c>
+      <c r="C45" s="48"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="53"/>
+      <c r="J45" s="1"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B46" s="32">
+        <v>44879</v>
+      </c>
+      <c r="C46" s="48"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="53"/>
+      <c r="J46" s="1"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B47" s="32">
+        <v>44880</v>
+      </c>
+      <c r="C47" s="48"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="53"/>
+      <c r="J47" s="1"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B48" s="32">
+        <v>44881</v>
+      </c>
+      <c r="C48" s="48"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="53"/>
+      <c r="J48" s="1"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B49" s="32">
+        <v>44882</v>
+      </c>
+      <c r="C49" s="48"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="53"/>
+      <c r="J49" s="1"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B50" s="32">
+        <v>44883</v>
+      </c>
+      <c r="C50" s="48"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="53"/>
+      <c r="J50" s="1"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B51" s="32">
+        <v>44884</v>
+      </c>
+      <c r="C51" s="48"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="53"/>
+      <c r="J51" s="1"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B52" s="32">
+        <v>44885</v>
+      </c>
+      <c r="C52" s="48"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="53"/>
+      <c r="J52" s="1"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B53" s="32">
+        <v>44886</v>
+      </c>
+      <c r="C53" s="48"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="53"/>
+      <c r="J53" s="1"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B54" s="32">
+        <v>44887</v>
+      </c>
+      <c r="C54" s="48"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="53"/>
+      <c r="J54" s="1"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B55" s="32">
+        <v>44888</v>
+      </c>
+      <c r="C55" s="48"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="53"/>
+      <c r="J55" s="1"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B56" s="32">
+        <v>44889</v>
+      </c>
+      <c r="C56" s="48"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="53"/>
+      <c r="J56" s="1"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B57" s="32">
+        <v>44890</v>
+      </c>
+      <c r="C57" s="48"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="53"/>
+      <c r="J57" s="1"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B58" s="32">
+        <v>44891</v>
+      </c>
+      <c r="C58" s="48"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="53"/>
+      <c r="J58" s="1"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B59" s="32">
+        <v>44892</v>
+      </c>
+      <c r="C59" s="48"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="53"/>
+      <c r="J59" s="1"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B60" s="32">
+        <v>44893</v>
+      </c>
+      <c r="C60" s="48"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="53"/>
+      <c r="J60" s="1"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B61" s="39">
+        <v>44894</v>
+      </c>
+      <c r="C61" s="48"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="28"/>
+      <c r="I61" s="53"/>
+      <c r="J61" s="38" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B62" s="32">
+        <v>44895</v>
+      </c>
+      <c r="C62" s="48"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="53"/>
+      <c r="J62" s="1"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B63" s="32">
+        <v>44896</v>
+      </c>
+      <c r="C63" s="48"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="28"/>
+      <c r="I63" s="53"/>
+      <c r="J63" s="1"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B64" s="32">
+        <v>44897</v>
+      </c>
+      <c r="C64" s="48"/>
+      <c r="D64" s="28"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="28"/>
+      <c r="H64" s="28"/>
+      <c r="I64" s="53"/>
+      <c r="J64" s="1"/>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B65" s="32">
+        <v>44898</v>
+      </c>
+      <c r="C65" s="48"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="28"/>
+      <c r="F65" s="28"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="28"/>
+      <c r="I65" s="53"/>
+      <c r="J65" s="1"/>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B66" s="32">
+        <v>44899</v>
+      </c>
+      <c r="C66" s="48"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="28"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="53"/>
+      <c r="J66" s="1"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B67" s="32">
+        <v>44900</v>
+      </c>
+      <c r="C67" s="48"/>
+      <c r="D67" s="28"/>
+      <c r="E67" s="28"/>
+      <c r="F67" s="28"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="28"/>
+      <c r="I67" s="53"/>
+      <c r="J67" s="1"/>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B68" s="32">
+        <v>44901</v>
+      </c>
+      <c r="C68" s="48"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="53"/>
+      <c r="J68" s="1"/>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B69" s="32">
+        <v>44902</v>
+      </c>
+      <c r="C69" s="48"/>
+      <c r="D69" s="28"/>
+      <c r="E69" s="28"/>
+      <c r="F69" s="28"/>
+      <c r="G69" s="28"/>
+      <c r="H69" s="28"/>
+      <c r="I69" s="53"/>
+      <c r="J69" s="1"/>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B70" s="32">
+        <v>44903</v>
+      </c>
+      <c r="C70" s="48"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="28"/>
+      <c r="F70" s="28"/>
+      <c r="G70" s="28"/>
+      <c r="H70" s="28"/>
+      <c r="I70" s="53"/>
+      <c r="J70" s="1"/>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B71" s="32">
+        <v>44904</v>
+      </c>
+      <c r="C71" s="48"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="53"/>
+      <c r="J71" s="1"/>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B72" s="32">
+        <v>44905</v>
+      </c>
+      <c r="C72" s="48"/>
+      <c r="D72" s="28"/>
+      <c r="E72" s="28"/>
+      <c r="F72" s="28"/>
+      <c r="G72" s="28"/>
+      <c r="H72" s="28"/>
+      <c r="I72" s="53"/>
+      <c r="J72" s="1"/>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B73" s="32">
+        <v>44906</v>
+      </c>
+      <c r="C73" s="48"/>
+      <c r="D73" s="28"/>
+      <c r="E73" s="28"/>
+      <c r="F73" s="28"/>
+      <c r="G73" s="28"/>
+      <c r="H73" s="28"/>
+      <c r="I73" s="53"/>
+      <c r="J73" s="1"/>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B74" s="32">
+        <v>44907</v>
+      </c>
+      <c r="C74" s="48"/>
+      <c r="D74" s="28"/>
+      <c r="E74" s="28"/>
+      <c r="F74" s="28"/>
+      <c r="G74" s="28"/>
+      <c r="H74" s="28"/>
+      <c r="I74" s="53"/>
+      <c r="J74" s="1"/>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B75" s="32">
+        <v>44908</v>
+      </c>
+      <c r="C75" s="48"/>
+      <c r="D75" s="28"/>
+      <c r="E75" s="28"/>
+      <c r="F75" s="28"/>
+      <c r="G75" s="28"/>
+      <c r="H75" s="28"/>
+      <c r="I75" s="53"/>
+      <c r="J75" s="1"/>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B76" s="32">
+        <v>44909</v>
+      </c>
+      <c r="C76" s="48"/>
+      <c r="D76" s="28"/>
+      <c r="E76" s="28"/>
+      <c r="F76" s="28"/>
+      <c r="G76" s="28"/>
+      <c r="H76" s="28"/>
+      <c r="I76" s="53"/>
+      <c r="J76" s="1"/>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B77" s="32">
+        <v>44910</v>
+      </c>
+      <c r="C77" s="48"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="28"/>
+      <c r="H77" s="28"/>
+      <c r="I77" s="53"/>
+      <c r="J77" s="1"/>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B78" s="32">
+        <v>44911</v>
+      </c>
+      <c r="C78" s="48"/>
+      <c r="D78" s="28"/>
+      <c r="E78" s="28"/>
+      <c r="F78" s="28"/>
+      <c r="G78" s="28"/>
+      <c r="H78" s="28"/>
+      <c r="I78" s="53"/>
+      <c r="J78" s="1"/>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B79" s="32">
+        <v>44912</v>
+      </c>
+      <c r="C79" s="48"/>
+      <c r="D79" s="28"/>
+      <c r="E79" s="28"/>
+      <c r="F79" s="28"/>
+      <c r="G79" s="28"/>
+      <c r="H79" s="28"/>
+      <c r="I79" s="53"/>
+      <c r="J79" s="1"/>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B80" s="32">
+        <v>44913</v>
+      </c>
+      <c r="C80" s="48"/>
+      <c r="D80" s="28"/>
+      <c r="E80" s="28"/>
+      <c r="F80" s="28"/>
+      <c r="G80" s="28"/>
+      <c r="H80" s="28"/>
+      <c r="I80" s="53"/>
+      <c r="J80" s="1"/>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B81" s="32">
+        <v>44914</v>
+      </c>
+      <c r="C81" s="48"/>
+      <c r="D81" s="28"/>
+      <c r="E81" s="28"/>
+      <c r="F81" s="28"/>
+      <c r="G81" s="28"/>
+      <c r="H81" s="28"/>
+      <c r="I81" s="53"/>
+      <c r="J81" s="1"/>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B82" s="32">
+        <v>44915</v>
+      </c>
+      <c r="C82" s="48"/>
+      <c r="D82" s="28"/>
+      <c r="E82" s="28"/>
+      <c r="F82" s="28"/>
+      <c r="G82" s="28"/>
+      <c r="H82" s="28"/>
+      <c r="I82" s="53"/>
+      <c r="J82" s="1"/>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B83" s="32">
+        <v>44916</v>
+      </c>
+      <c r="C83" s="48"/>
+      <c r="D83" s="28"/>
+      <c r="E83" s="28"/>
+      <c r="F83" s="28"/>
+      <c r="G83" s="28"/>
+      <c r="H83" s="28"/>
+      <c r="I83" s="53"/>
+      <c r="J83" s="1"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B84" s="39">
+        <v>44917</v>
+      </c>
+      <c r="C84" s="48"/>
+      <c r="D84" s="28"/>
+      <c r="E84" s="28"/>
+      <c r="F84" s="28"/>
+      <c r="G84" s="28"/>
+      <c r="H84" s="28"/>
+      <c r="I84" s="53"/>
+      <c r="J84" s="38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B85" s="32">
+        <v>44918</v>
+      </c>
+      <c r="C85" s="48"/>
+      <c r="D85" s="28"/>
+      <c r="E85" s="28"/>
+      <c r="F85" s="28"/>
+      <c r="G85" s="28"/>
+      <c r="H85" s="28"/>
+      <c r="I85" s="53"/>
+      <c r="J85" s="1"/>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B86" s="32">
+        <v>44919</v>
+      </c>
+      <c r="C86" s="48"/>
+      <c r="D86" s="28"/>
+      <c r="E86" s="28"/>
+      <c r="F86" s="28"/>
+      <c r="G86" s="28"/>
+      <c r="H86" s="28"/>
+      <c r="I86" s="53"/>
+      <c r="J86" s="1"/>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B87" s="32">
+        <v>44920</v>
+      </c>
+      <c r="C87" s="48"/>
+      <c r="D87" s="28"/>
+      <c r="E87" s="28"/>
+      <c r="F87" s="28"/>
+      <c r="G87" s="28"/>
+      <c r="H87" s="28"/>
+      <c r="I87" s="53"/>
+      <c r="J87" s="1"/>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B88" s="32">
+        <v>44921</v>
+      </c>
+      <c r="C88" s="48"/>
+      <c r="D88" s="28"/>
+      <c r="E88" s="28"/>
+      <c r="F88" s="28"/>
+      <c r="G88" s="28"/>
+      <c r="H88" s="28"/>
+      <c r="I88" s="53"/>
+      <c r="J88" s="1"/>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B89" s="32">
+        <v>44922</v>
+      </c>
+      <c r="C89" s="48"/>
+      <c r="D89" s="28"/>
+      <c r="E89" s="28"/>
+      <c r="F89" s="28"/>
+      <c r="G89" s="28"/>
+      <c r="H89" s="28"/>
+      <c r="I89" s="53"/>
+      <c r="J89" s="1"/>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B90" s="32">
+        <v>44923</v>
+      </c>
+      <c r="C90" s="48"/>
+      <c r="D90" s="28"/>
+      <c r="E90" s="28"/>
+      <c r="F90" s="28"/>
+      <c r="G90" s="28"/>
+      <c r="H90" s="28"/>
+      <c r="I90" s="53"/>
+      <c r="J90" s="1"/>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B91" s="32">
+        <v>44924</v>
+      </c>
+      <c r="C91" s="48"/>
+      <c r="D91" s="28"/>
+      <c r="E91" s="28"/>
+      <c r="F91" s="28"/>
+      <c r="G91" s="28"/>
+      <c r="H91" s="28"/>
+      <c r="I91" s="53"/>
+      <c r="J91" s="1"/>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B92" s="32">
+        <v>44925</v>
+      </c>
+      <c r="C92" s="48"/>
+      <c r="D92" s="28"/>
+      <c r="E92" s="28"/>
+      <c r="F92" s="28"/>
+      <c r="G92" s="28"/>
+      <c r="H92" s="28"/>
+      <c r="I92" s="53"/>
+      <c r="J92" s="1"/>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B93" s="32">
+        <v>44926</v>
+      </c>
+      <c r="C93" s="48"/>
+      <c r="D93" s="28"/>
+      <c r="E93" s="28"/>
+      <c r="F93" s="28"/>
+      <c r="G93" s="28"/>
+      <c r="H93" s="28"/>
+      <c r="I93" s="53"/>
+      <c r="J93" s="1"/>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B94" s="32">
+        <v>44927</v>
+      </c>
+      <c r="C94" s="48"/>
+      <c r="D94" s="28"/>
+      <c r="E94" s="28"/>
+      <c r="F94" s="28"/>
+      <c r="G94" s="28"/>
+      <c r="H94" s="28"/>
+      <c r="I94" s="53"/>
+      <c r="J94" s="1"/>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B95" s="32">
+        <v>44928</v>
+      </c>
+      <c r="C95" s="48"/>
+      <c r="D95" s="28"/>
+      <c r="E95" s="28"/>
+      <c r="F95" s="28"/>
+      <c r="G95" s="28"/>
+      <c r="H95" s="28"/>
+      <c r="I95" s="53"/>
+      <c r="J95" s="1"/>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B96" s="32">
+        <v>44929</v>
+      </c>
+      <c r="C96" s="48"/>
+      <c r="D96" s="28"/>
+      <c r="E96" s="28"/>
+      <c r="F96" s="28"/>
+      <c r="G96" s="28"/>
+      <c r="H96" s="28"/>
+      <c r="I96" s="53"/>
+      <c r="J96" s="1"/>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B97" s="32">
+        <v>44930</v>
+      </c>
+      <c r="C97" s="48"/>
+      <c r="D97" s="28"/>
+      <c r="E97" s="28"/>
+      <c r="F97" s="28"/>
+      <c r="G97" s="28"/>
+      <c r="H97" s="28"/>
+      <c r="I97" s="53"/>
+      <c r="J97" s="1"/>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B98" s="32">
+        <v>44931</v>
+      </c>
+      <c r="C98" s="48"/>
+      <c r="D98" s="28"/>
+      <c r="E98" s="28"/>
+      <c r="F98" s="28"/>
+      <c r="G98" s="28"/>
+      <c r="H98" s="28"/>
+      <c r="I98" s="53"/>
+      <c r="J98" s="1"/>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B99" s="32">
+        <v>44932</v>
+      </c>
+      <c r="C99" s="48"/>
+      <c r="D99" s="28"/>
+      <c r="E99" s="28"/>
+      <c r="F99" s="28"/>
+      <c r="G99" s="28"/>
+      <c r="H99" s="28"/>
+      <c r="I99" s="53"/>
+      <c r="J99" s="1"/>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B100" s="32">
+        <v>44933</v>
+      </c>
+      <c r="C100" s="48"/>
+      <c r="D100" s="28"/>
+      <c r="E100" s="28"/>
+      <c r="F100" s="28"/>
+      <c r="G100" s="28"/>
+      <c r="H100" s="28"/>
+      <c r="I100" s="53"/>
+      <c r="J100" s="1"/>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B101" s="32">
+        <v>44934</v>
+      </c>
+      <c r="C101" s="48"/>
+      <c r="D101" s="28"/>
+      <c r="E101" s="28"/>
+      <c r="F101" s="28"/>
+      <c r="G101" s="28"/>
+      <c r="H101" s="28"/>
+      <c r="I101" s="53"/>
+      <c r="J101" s="1"/>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B102" s="32">
+        <v>44935</v>
+      </c>
+      <c r="C102" s="48"/>
+      <c r="D102" s="28"/>
+      <c r="E102" s="28"/>
+      <c r="F102" s="28"/>
+      <c r="G102" s="28"/>
+      <c r="H102" s="28"/>
+      <c r="I102" s="53"/>
+      <c r="J102" s="1"/>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B103" s="32">
+        <v>44936</v>
+      </c>
+      <c r="C103" s="48"/>
+      <c r="D103" s="28"/>
+      <c r="E103" s="28"/>
+      <c r="F103" s="28"/>
+      <c r="G103" s="28"/>
+      <c r="H103" s="28"/>
+      <c r="I103" s="53"/>
+      <c r="J103" s="1"/>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B104" s="32">
+        <v>44937</v>
+      </c>
+      <c r="C104" s="48"/>
+      <c r="D104" s="28"/>
+      <c r="E104" s="28"/>
+      <c r="F104" s="28"/>
+      <c r="G104" s="28"/>
+      <c r="H104" s="28"/>
+      <c r="I104" s="53"/>
+      <c r="J104" s="1"/>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B105" s="32">
+        <v>44938</v>
+      </c>
+      <c r="C105" s="48"/>
+      <c r="D105" s="28"/>
+      <c r="E105" s="28"/>
+      <c r="F105" s="28"/>
+      <c r="G105" s="28"/>
+      <c r="H105" s="28"/>
+      <c r="I105" s="53"/>
+      <c r="J105" s="1"/>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B106" s="32">
+        <v>44939</v>
+      </c>
+      <c r="C106" s="48"/>
+      <c r="D106" s="28"/>
+      <c r="E106" s="28"/>
+      <c r="F106" s="28"/>
+      <c r="G106" s="28"/>
+      <c r="H106" s="28"/>
+      <c r="I106" s="53"/>
+      <c r="J106" s="1"/>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B107" s="32">
+        <v>44940</v>
+      </c>
+      <c r="C107" s="48"/>
+      <c r="D107" s="28"/>
+      <c r="E107" s="28"/>
+      <c r="F107" s="28"/>
+      <c r="G107" s="28"/>
+      <c r="H107" s="28"/>
+      <c r="I107" s="53"/>
+      <c r="J107" s="1"/>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B108" s="32">
+        <v>44941</v>
+      </c>
+      <c r="C108" s="48"/>
+      <c r="D108" s="28"/>
+      <c r="E108" s="28"/>
+      <c r="F108" s="28"/>
+      <c r="G108" s="28"/>
+      <c r="H108" s="28"/>
+      <c r="I108" s="53"/>
+      <c r="J108" s="1"/>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B109" s="32">
+        <v>44942</v>
+      </c>
+      <c r="C109" s="48"/>
+      <c r="D109" s="28"/>
+      <c r="E109" s="28"/>
+      <c r="F109" s="28"/>
+      <c r="G109" s="28"/>
+      <c r="H109" s="28"/>
+      <c r="I109" s="53"/>
+      <c r="J109" s="1"/>
+    </row>
+    <row r="110" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B110" s="40">
+        <v>44943</v>
+      </c>
+      <c r="C110" s="54"/>
+      <c r="D110" s="55"/>
+      <c r="E110" s="55"/>
+      <c r="F110" s="55"/>
+      <c r="G110" s="55"/>
+      <c r="H110" s="55"/>
+      <c r="I110" s="56"/>
+      <c r="J110" s="37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="B5:B110">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/仕様書.xlsx
+++ b/仕様書.xlsx
@@ -1157,6 +1157,102 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1177,108 +1273,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="2">
     <dxf>
       <font>
         <b/>
@@ -1301,66 +1301,6 @@
         <patternFill>
           <fgColor auto="1"/>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1654,12 +1594,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
     </row>
     <row r="3" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="9" t="s">
@@ -1676,12 +1616,12 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="23"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="55"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B5" s="5" t="s">
@@ -1762,12 +1702,12 @@
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="27"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="59"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B13" s="5" t="s">
@@ -1804,12 +1744,12 @@
       <c r="E16" s="8"/>
     </row>
     <row r="17" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="23"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="55"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B18" s="5"/>
@@ -1836,12 +1776,12 @@
       <c r="E21" s="8"/>
     </row>
     <row r="22" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="23"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="55"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B23" s="5" t="s">
@@ -1868,12 +1808,12 @@
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="23"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="55"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B27" s="5" t="s">
@@ -2051,1455 +1991,1455 @@
       <c r="B2" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="44">
+      <c r="D2" s="37">
         <f ca="1">TODAY()</f>
         <v>44839</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="46"/>
-      <c r="C3" s="47" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="H3" s="36" t="s">
+      <c r="H3" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="J3" s="41" t="s">
+      <c r="J3" s="34" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="45" t="s">
+      <c r="G4" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="30" t="s">
+      <c r="I4" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="J4" s="42"/>
+      <c r="J4" s="35"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B5" s="57">
+      <c r="B5" s="50">
         <v>44838</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51" t="s">
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="51"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="59"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="52"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B6" s="33">
+      <c r="B6" s="26">
         <v>44839</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51" t="s">
+      <c r="C6" s="43"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="52"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="45"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B7" s="32">
+      <c r="B7" s="25">
         <v>44840</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="49"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="42"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B8" s="32">
+      <c r="B8" s="25">
         <v>44841</v>
       </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="53"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="46"/>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B9" s="32">
+      <c r="B9" s="25">
         <v>44842</v>
       </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="53"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="46"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B10" s="32">
+      <c r="B10" s="25">
         <v>44843</v>
       </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="53"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="46"/>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B11" s="32">
+      <c r="B11" s="25">
         <v>44844</v>
       </c>
-      <c r="C11" s="48"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="53"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="46"/>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B12" s="32">
+      <c r="B12" s="25">
         <v>44845</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="53"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="46"/>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B13" s="32">
+      <c r="B13" s="25">
         <v>44846</v>
       </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="53"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="46"/>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B14" s="32">
+      <c r="B14" s="25">
         <v>44847</v>
       </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="53"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="46"/>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B15" s="32">
+      <c r="B15" s="25">
         <v>44848</v>
       </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="53"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="46"/>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B16" s="32">
+      <c r="B16" s="25">
         <v>44849</v>
       </c>
-      <c r="C16" s="48"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="53"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="46"/>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B17" s="32">
+      <c r="B17" s="25">
         <v>44850</v>
       </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="53"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="46"/>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B18" s="32">
+      <c r="B18" s="25">
         <v>44851</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="53"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="46"/>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B19" s="32">
+      <c r="B19" s="25">
         <v>44852</v>
       </c>
-      <c r="C19" s="48"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="53"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="46"/>
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B20" s="32">
+      <c r="B20" s="25">
         <v>44853</v>
       </c>
-      <c r="C20" s="48"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="53"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="46"/>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B21" s="32">
+      <c r="B21" s="25">
         <v>44854</v>
       </c>
-      <c r="C21" s="48"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="53"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="46"/>
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B22" s="32">
+      <c r="B22" s="25">
         <v>44855</v>
       </c>
-      <c r="C22" s="48"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="53"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="46"/>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B23" s="32">
+      <c r="B23" s="25">
         <v>44856</v>
       </c>
-      <c r="C23" s="48"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="53"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="46"/>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B24" s="32">
+      <c r="B24" s="25">
         <v>44857</v>
       </c>
-      <c r="C24" s="48"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="53"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="46"/>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B25" s="32">
+      <c r="B25" s="25">
         <v>44858</v>
       </c>
-      <c r="C25" s="48"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="53"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="46"/>
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B26" s="32">
+      <c r="B26" s="25">
         <v>44859</v>
       </c>
-      <c r="C26" s="48"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="53"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="46"/>
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B27" s="32">
+      <c r="B27" s="25">
         <v>44860</v>
       </c>
-      <c r="C27" s="48"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="53"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="46"/>
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B28" s="32">
+      <c r="B28" s="25">
         <v>44861</v>
       </c>
-      <c r="C28" s="48"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="53"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="46"/>
       <c r="J28" s="1"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B29" s="32">
+      <c r="B29" s="25">
         <v>44862</v>
       </c>
-      <c r="C29" s="48"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="53"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="46"/>
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B30" s="32">
+      <c r="B30" s="25">
         <v>44863</v>
       </c>
-      <c r="C30" s="48"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="53"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="46"/>
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B31" s="32">
+      <c r="B31" s="25">
         <v>44864</v>
       </c>
-      <c r="C31" s="48"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="53"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="46"/>
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B32" s="32">
+      <c r="B32" s="25">
         <v>44865</v>
       </c>
-      <c r="C32" s="48"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="53"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="46"/>
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B33" s="32">
+      <c r="B33" s="25">
         <v>44866</v>
       </c>
-      <c r="C33" s="48"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="53"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="46"/>
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B34" s="32">
+      <c r="B34" s="25">
         <v>44867</v>
       </c>
-      <c r="C34" s="48"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="53"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="46"/>
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B35" s="32">
+      <c r="B35" s="25">
         <v>44868</v>
       </c>
-      <c r="C35" s="48"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="53"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="46"/>
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B36" s="39">
+      <c r="B36" s="32">
         <v>44869</v>
       </c>
-      <c r="C36" s="48"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="53"/>
-      <c r="J36" s="38" t="s">
+      <c r="C36" s="41"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="31" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B37" s="32">
+      <c r="B37" s="25">
         <v>44870</v>
       </c>
-      <c r="C37" s="48"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="53"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="46"/>
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B38" s="32">
+      <c r="B38" s="25">
         <v>44871</v>
       </c>
-      <c r="C38" s="48"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="53"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="46"/>
       <c r="J38" s="1"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B39" s="32">
+      <c r="B39" s="25">
         <v>44872</v>
       </c>
-      <c r="C39" s="48"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="53"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="46"/>
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B40" s="32">
+      <c r="B40" s="25">
         <v>44873</v>
       </c>
-      <c r="C40" s="48"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="53"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="46"/>
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B41" s="32">
+      <c r="B41" s="25">
         <v>44874</v>
       </c>
-      <c r="C41" s="48"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="53"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="46"/>
       <c r="J41" s="1"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B42" s="32">
+      <c r="B42" s="25">
         <v>44875</v>
       </c>
-      <c r="C42" s="48"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="53"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="46"/>
       <c r="J42" s="1"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B43" s="32">
+      <c r="B43" s="25">
         <v>44876</v>
       </c>
-      <c r="C43" s="48"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="53"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="46"/>
       <c r="J43" s="1"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B44" s="32">
+      <c r="B44" s="25">
         <v>44877</v>
       </c>
-      <c r="C44" s="48"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="53"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="46"/>
       <c r="J44" s="1"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B45" s="32">
+      <c r="B45" s="25">
         <v>44878</v>
       </c>
-      <c r="C45" s="48"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="53"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="46"/>
       <c r="J45" s="1"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B46" s="32">
+      <c r="B46" s="25">
         <v>44879</v>
       </c>
-      <c r="C46" s="48"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="53"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="46"/>
       <c r="J46" s="1"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B47" s="32">
+      <c r="B47" s="25">
         <v>44880</v>
       </c>
-      <c r="C47" s="48"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="53"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="46"/>
       <c r="J47" s="1"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B48" s="32">
+      <c r="B48" s="25">
         <v>44881</v>
       </c>
-      <c r="C48" s="48"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="53"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="46"/>
       <c r="J48" s="1"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B49" s="32">
+      <c r="B49" s="25">
         <v>44882</v>
       </c>
-      <c r="C49" s="48"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="53"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="46"/>
       <c r="J49" s="1"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B50" s="32">
+      <c r="B50" s="25">
         <v>44883</v>
       </c>
-      <c r="C50" s="48"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="53"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="46"/>
       <c r="J50" s="1"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B51" s="32">
+      <c r="B51" s="25">
         <v>44884</v>
       </c>
-      <c r="C51" s="48"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="53"/>
+      <c r="C51" s="41"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="46"/>
       <c r="J51" s="1"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B52" s="32">
+      <c r="B52" s="25">
         <v>44885</v>
       </c>
-      <c r="C52" s="48"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="53"/>
+      <c r="C52" s="41"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="46"/>
       <c r="J52" s="1"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B53" s="32">
+      <c r="B53" s="25">
         <v>44886</v>
       </c>
-      <c r="C53" s="48"/>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="53"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="46"/>
       <c r="J53" s="1"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B54" s="32">
+      <c r="B54" s="25">
         <v>44887</v>
       </c>
-      <c r="C54" s="48"/>
-      <c r="D54" s="28"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="53"/>
+      <c r="C54" s="41"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="46"/>
       <c r="J54" s="1"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B55" s="32">
+      <c r="B55" s="25">
         <v>44888</v>
       </c>
-      <c r="C55" s="48"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="53"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="46"/>
       <c r="J55" s="1"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B56" s="32">
+      <c r="B56" s="25">
         <v>44889</v>
       </c>
-      <c r="C56" s="48"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="53"/>
+      <c r="C56" s="41"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="46"/>
       <c r="J56" s="1"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B57" s="32">
+      <c r="B57" s="25">
         <v>44890</v>
       </c>
-      <c r="C57" s="48"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="28"/>
-      <c r="H57" s="28"/>
-      <c r="I57" s="53"/>
+      <c r="C57" s="41"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="46"/>
       <c r="J57" s="1"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B58" s="32">
+      <c r="B58" s="25">
         <v>44891</v>
       </c>
-      <c r="C58" s="48"/>
-      <c r="D58" s="28"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="28"/>
-      <c r="G58" s="28"/>
-      <c r="H58" s="28"/>
-      <c r="I58" s="53"/>
+      <c r="C58" s="41"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="46"/>
       <c r="J58" s="1"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B59" s="32">
+      <c r="B59" s="25">
         <v>44892</v>
       </c>
-      <c r="C59" s="48"/>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="53"/>
+      <c r="C59" s="41"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="46"/>
       <c r="J59" s="1"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B60" s="32">
+      <c r="B60" s="25">
         <v>44893</v>
       </c>
-      <c r="C60" s="48"/>
-      <c r="D60" s="28"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="28"/>
-      <c r="G60" s="28"/>
-      <c r="H60" s="28"/>
-      <c r="I60" s="53"/>
+      <c r="C60" s="41"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="46"/>
       <c r="J60" s="1"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B61" s="39">
+      <c r="B61" s="32">
         <v>44894</v>
       </c>
-      <c r="C61" s="48"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="28"/>
-      <c r="G61" s="28"/>
-      <c r="H61" s="28"/>
-      <c r="I61" s="53"/>
-      <c r="J61" s="38" t="s">
+      <c r="C61" s="41"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="46"/>
+      <c r="J61" s="31" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B62" s="32">
+      <c r="B62" s="25">
         <v>44895</v>
       </c>
-      <c r="C62" s="48"/>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="53"/>
+      <c r="C62" s="41"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="21"/>
+      <c r="I62" s="46"/>
       <c r="J62" s="1"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B63" s="32">
+      <c r="B63" s="25">
         <v>44896</v>
       </c>
-      <c r="C63" s="48"/>
-      <c r="D63" s="28"/>
-      <c r="E63" s="28"/>
-      <c r="F63" s="28"/>
-      <c r="G63" s="28"/>
-      <c r="H63" s="28"/>
-      <c r="I63" s="53"/>
+      <c r="C63" s="41"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="46"/>
       <c r="J63" s="1"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B64" s="32">
+      <c r="B64" s="25">
         <v>44897</v>
       </c>
-      <c r="C64" s="48"/>
-      <c r="D64" s="28"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="28"/>
-      <c r="G64" s="28"/>
-      <c r="H64" s="28"/>
-      <c r="I64" s="53"/>
+      <c r="C64" s="41"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="46"/>
       <c r="J64" s="1"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B65" s="32">
+      <c r="B65" s="25">
         <v>44898</v>
       </c>
-      <c r="C65" s="48"/>
-      <c r="D65" s="28"/>
-      <c r="E65" s="28"/>
-      <c r="F65" s="28"/>
-      <c r="G65" s="28"/>
-      <c r="H65" s="28"/>
-      <c r="I65" s="53"/>
+      <c r="C65" s="41"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="46"/>
       <c r="J65" s="1"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B66" s="32">
+      <c r="B66" s="25">
         <v>44899</v>
       </c>
-      <c r="C66" s="48"/>
-      <c r="D66" s="28"/>
-      <c r="E66" s="28"/>
-      <c r="F66" s="28"/>
-      <c r="G66" s="28"/>
-      <c r="H66" s="28"/>
-      <c r="I66" s="53"/>
+      <c r="C66" s="41"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="46"/>
       <c r="J66" s="1"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B67" s="32">
+      <c r="B67" s="25">
         <v>44900</v>
       </c>
-      <c r="C67" s="48"/>
-      <c r="D67" s="28"/>
-      <c r="E67" s="28"/>
-      <c r="F67" s="28"/>
-      <c r="G67" s="28"/>
-      <c r="H67" s="28"/>
-      <c r="I67" s="53"/>
+      <c r="C67" s="41"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="21"/>
+      <c r="I67" s="46"/>
       <c r="J67" s="1"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B68" s="32">
+      <c r="B68" s="25">
         <v>44901</v>
       </c>
-      <c r="C68" s="48"/>
-      <c r="D68" s="28"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="28"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="53"/>
+      <c r="C68" s="41"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="21"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="46"/>
       <c r="J68" s="1"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B69" s="32">
+      <c r="B69" s="25">
         <v>44902</v>
       </c>
-      <c r="C69" s="48"/>
-      <c r="D69" s="28"/>
-      <c r="E69" s="28"/>
-      <c r="F69" s="28"/>
-      <c r="G69" s="28"/>
-      <c r="H69" s="28"/>
-      <c r="I69" s="53"/>
+      <c r="C69" s="41"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="46"/>
       <c r="J69" s="1"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B70" s="32">
+      <c r="B70" s="25">
         <v>44903</v>
       </c>
-      <c r="C70" s="48"/>
-      <c r="D70" s="28"/>
-      <c r="E70" s="28"/>
-      <c r="F70" s="28"/>
-      <c r="G70" s="28"/>
-      <c r="H70" s="28"/>
-      <c r="I70" s="53"/>
+      <c r="C70" s="41"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="21"/>
+      <c r="I70" s="46"/>
       <c r="J70" s="1"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B71" s="32">
+      <c r="B71" s="25">
         <v>44904</v>
       </c>
-      <c r="C71" s="48"/>
-      <c r="D71" s="28"/>
-      <c r="E71" s="28"/>
-      <c r="F71" s="28"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="53"/>
+      <c r="C71" s="41"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="21"/>
+      <c r="H71" s="21"/>
+      <c r="I71" s="46"/>
       <c r="J71" s="1"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B72" s="32">
+      <c r="B72" s="25">
         <v>44905</v>
       </c>
-      <c r="C72" s="48"/>
-      <c r="D72" s="28"/>
-      <c r="E72" s="28"/>
-      <c r="F72" s="28"/>
-      <c r="G72" s="28"/>
-      <c r="H72" s="28"/>
-      <c r="I72" s="53"/>
+      <c r="C72" s="41"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="21"/>
+      <c r="H72" s="21"/>
+      <c r="I72" s="46"/>
       <c r="J72" s="1"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B73" s="32">
+      <c r="B73" s="25">
         <v>44906</v>
       </c>
-      <c r="C73" s="48"/>
-      <c r="D73" s="28"/>
-      <c r="E73" s="28"/>
-      <c r="F73" s="28"/>
-      <c r="G73" s="28"/>
-      <c r="H73" s="28"/>
-      <c r="I73" s="53"/>
+      <c r="C73" s="41"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="21"/>
+      <c r="H73" s="21"/>
+      <c r="I73" s="46"/>
       <c r="J73" s="1"/>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B74" s="32">
+      <c r="B74" s="25">
         <v>44907</v>
       </c>
-      <c r="C74" s="48"/>
-      <c r="D74" s="28"/>
-      <c r="E74" s="28"/>
-      <c r="F74" s="28"/>
-      <c r="G74" s="28"/>
-      <c r="H74" s="28"/>
-      <c r="I74" s="53"/>
+      <c r="C74" s="41"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="21"/>
+      <c r="H74" s="21"/>
+      <c r="I74" s="46"/>
       <c r="J74" s="1"/>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B75" s="32">
+      <c r="B75" s="25">
         <v>44908</v>
       </c>
-      <c r="C75" s="48"/>
-      <c r="D75" s="28"/>
-      <c r="E75" s="28"/>
-      <c r="F75" s="28"/>
-      <c r="G75" s="28"/>
-      <c r="H75" s="28"/>
-      <c r="I75" s="53"/>
+      <c r="C75" s="41"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="21"/>
+      <c r="H75" s="21"/>
+      <c r="I75" s="46"/>
       <c r="J75" s="1"/>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B76" s="32">
+      <c r="B76" s="25">
         <v>44909</v>
       </c>
-      <c r="C76" s="48"/>
-      <c r="D76" s="28"/>
-      <c r="E76" s="28"/>
-      <c r="F76" s="28"/>
-      <c r="G76" s="28"/>
-      <c r="H76" s="28"/>
-      <c r="I76" s="53"/>
+      <c r="C76" s="41"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="21"/>
+      <c r="H76" s="21"/>
+      <c r="I76" s="46"/>
       <c r="J76" s="1"/>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B77" s="32">
+      <c r="B77" s="25">
         <v>44910</v>
       </c>
-      <c r="C77" s="48"/>
-      <c r="D77" s="28"/>
-      <c r="E77" s="28"/>
-      <c r="F77" s="28"/>
-      <c r="G77" s="28"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="53"/>
+      <c r="C77" s="41"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="21"/>
+      <c r="H77" s="21"/>
+      <c r="I77" s="46"/>
       <c r="J77" s="1"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B78" s="32">
+      <c r="B78" s="25">
         <v>44911</v>
       </c>
-      <c r="C78" s="48"/>
-      <c r="D78" s="28"/>
-      <c r="E78" s="28"/>
-      <c r="F78" s="28"/>
-      <c r="G78" s="28"/>
-      <c r="H78" s="28"/>
-      <c r="I78" s="53"/>
+      <c r="C78" s="41"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="21"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="21"/>
+      <c r="H78" s="21"/>
+      <c r="I78" s="46"/>
       <c r="J78" s="1"/>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B79" s="32">
+      <c r="B79" s="25">
         <v>44912</v>
       </c>
-      <c r="C79" s="48"/>
-      <c r="D79" s="28"/>
-      <c r="E79" s="28"/>
-      <c r="F79" s="28"/>
-      <c r="G79" s="28"/>
-      <c r="H79" s="28"/>
-      <c r="I79" s="53"/>
+      <c r="C79" s="41"/>
+      <c r="D79" s="21"/>
+      <c r="E79" s="21"/>
+      <c r="F79" s="21"/>
+      <c r="G79" s="21"/>
+      <c r="H79" s="21"/>
+      <c r="I79" s="46"/>
       <c r="J79" s="1"/>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B80" s="32">
+      <c r="B80" s="25">
         <v>44913</v>
       </c>
-      <c r="C80" s="48"/>
-      <c r="D80" s="28"/>
-      <c r="E80" s="28"/>
-      <c r="F80" s="28"/>
-      <c r="G80" s="28"/>
-      <c r="H80" s="28"/>
-      <c r="I80" s="53"/>
+      <c r="C80" s="41"/>
+      <c r="D80" s="21"/>
+      <c r="E80" s="21"/>
+      <c r="F80" s="21"/>
+      <c r="G80" s="21"/>
+      <c r="H80" s="21"/>
+      <c r="I80" s="46"/>
       <c r="J80" s="1"/>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B81" s="32">
+      <c r="B81" s="25">
         <v>44914</v>
       </c>
-      <c r="C81" s="48"/>
-      <c r="D81" s="28"/>
-      <c r="E81" s="28"/>
-      <c r="F81" s="28"/>
-      <c r="G81" s="28"/>
-      <c r="H81" s="28"/>
-      <c r="I81" s="53"/>
+      <c r="C81" s="41"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="21"/>
+      <c r="H81" s="21"/>
+      <c r="I81" s="46"/>
       <c r="J81" s="1"/>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B82" s="32">
+      <c r="B82" s="25">
         <v>44915</v>
       </c>
-      <c r="C82" s="48"/>
-      <c r="D82" s="28"/>
-      <c r="E82" s="28"/>
-      <c r="F82" s="28"/>
-      <c r="G82" s="28"/>
-      <c r="H82" s="28"/>
-      <c r="I82" s="53"/>
+      <c r="C82" s="41"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="21"/>
+      <c r="H82" s="21"/>
+      <c r="I82" s="46"/>
       <c r="J82" s="1"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B83" s="32">
+      <c r="B83" s="25">
         <v>44916</v>
       </c>
-      <c r="C83" s="48"/>
-      <c r="D83" s="28"/>
-      <c r="E83" s="28"/>
-      <c r="F83" s="28"/>
-      <c r="G83" s="28"/>
-      <c r="H83" s="28"/>
-      <c r="I83" s="53"/>
+      <c r="C83" s="41"/>
+      <c r="D83" s="21"/>
+      <c r="E83" s="21"/>
+      <c r="F83" s="21"/>
+      <c r="G83" s="21"/>
+      <c r="H83" s="21"/>
+      <c r="I83" s="46"/>
       <c r="J83" s="1"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B84" s="39">
+      <c r="B84" s="32">
         <v>44917</v>
       </c>
-      <c r="C84" s="48"/>
-      <c r="D84" s="28"/>
-      <c r="E84" s="28"/>
-      <c r="F84" s="28"/>
-      <c r="G84" s="28"/>
-      <c r="H84" s="28"/>
-      <c r="I84" s="53"/>
-      <c r="J84" s="38" t="s">
+      <c r="C84" s="41"/>
+      <c r="D84" s="21"/>
+      <c r="E84" s="21"/>
+      <c r="F84" s="21"/>
+      <c r="G84" s="21"/>
+      <c r="H84" s="21"/>
+      <c r="I84" s="46"/>
+      <c r="J84" s="31" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B85" s="32">
+      <c r="B85" s="25">
         <v>44918</v>
       </c>
-      <c r="C85" s="48"/>
-      <c r="D85" s="28"/>
-      <c r="E85" s="28"/>
-      <c r="F85" s="28"/>
-      <c r="G85" s="28"/>
-      <c r="H85" s="28"/>
-      <c r="I85" s="53"/>
+      <c r="C85" s="41"/>
+      <c r="D85" s="21"/>
+      <c r="E85" s="21"/>
+      <c r="F85" s="21"/>
+      <c r="G85" s="21"/>
+      <c r="H85" s="21"/>
+      <c r="I85" s="46"/>
       <c r="J85" s="1"/>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B86" s="32">
+      <c r="B86" s="25">
         <v>44919</v>
       </c>
-      <c r="C86" s="48"/>
-      <c r="D86" s="28"/>
-      <c r="E86" s="28"/>
-      <c r="F86" s="28"/>
-      <c r="G86" s="28"/>
-      <c r="H86" s="28"/>
-      <c r="I86" s="53"/>
+      <c r="C86" s="41"/>
+      <c r="D86" s="21"/>
+      <c r="E86" s="21"/>
+      <c r="F86" s="21"/>
+      <c r="G86" s="21"/>
+      <c r="H86" s="21"/>
+      <c r="I86" s="46"/>
       <c r="J86" s="1"/>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B87" s="32">
+      <c r="B87" s="25">
         <v>44920</v>
       </c>
-      <c r="C87" s="48"/>
-      <c r="D87" s="28"/>
-      <c r="E87" s="28"/>
-      <c r="F87" s="28"/>
-      <c r="G87" s="28"/>
-      <c r="H87" s="28"/>
-      <c r="I87" s="53"/>
+      <c r="C87" s="41"/>
+      <c r="D87" s="21"/>
+      <c r="E87" s="21"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="21"/>
+      <c r="H87" s="21"/>
+      <c r="I87" s="46"/>
       <c r="J87" s="1"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B88" s="32">
+      <c r="B88" s="25">
         <v>44921</v>
       </c>
-      <c r="C88" s="48"/>
-      <c r="D88" s="28"/>
-      <c r="E88" s="28"/>
-      <c r="F88" s="28"/>
-      <c r="G88" s="28"/>
-      <c r="H88" s="28"/>
-      <c r="I88" s="53"/>
+      <c r="C88" s="41"/>
+      <c r="D88" s="21"/>
+      <c r="E88" s="21"/>
+      <c r="F88" s="21"/>
+      <c r="G88" s="21"/>
+      <c r="H88" s="21"/>
+      <c r="I88" s="46"/>
       <c r="J88" s="1"/>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B89" s="32">
+      <c r="B89" s="25">
         <v>44922</v>
       </c>
-      <c r="C89" s="48"/>
-      <c r="D89" s="28"/>
-      <c r="E89" s="28"/>
-      <c r="F89" s="28"/>
-      <c r="G89" s="28"/>
-      <c r="H89" s="28"/>
-      <c r="I89" s="53"/>
+      <c r="C89" s="41"/>
+      <c r="D89" s="21"/>
+      <c r="E89" s="21"/>
+      <c r="F89" s="21"/>
+      <c r="G89" s="21"/>
+      <c r="H89" s="21"/>
+      <c r="I89" s="46"/>
       <c r="J89" s="1"/>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B90" s="32">
+      <c r="B90" s="25">
         <v>44923</v>
       </c>
-      <c r="C90" s="48"/>
-      <c r="D90" s="28"/>
-      <c r="E90" s="28"/>
-      <c r="F90" s="28"/>
-      <c r="G90" s="28"/>
-      <c r="H90" s="28"/>
-      <c r="I90" s="53"/>
+      <c r="C90" s="41"/>
+      <c r="D90" s="21"/>
+      <c r="E90" s="21"/>
+      <c r="F90" s="21"/>
+      <c r="G90" s="21"/>
+      <c r="H90" s="21"/>
+      <c r="I90" s="46"/>
       <c r="J90" s="1"/>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B91" s="32">
+      <c r="B91" s="25">
         <v>44924</v>
       </c>
-      <c r="C91" s="48"/>
-      <c r="D91" s="28"/>
-      <c r="E91" s="28"/>
-      <c r="F91" s="28"/>
-      <c r="G91" s="28"/>
-      <c r="H91" s="28"/>
-      <c r="I91" s="53"/>
+      <c r="C91" s="41"/>
+      <c r="D91" s="21"/>
+      <c r="E91" s="21"/>
+      <c r="F91" s="21"/>
+      <c r="G91" s="21"/>
+      <c r="H91" s="21"/>
+      <c r="I91" s="46"/>
       <c r="J91" s="1"/>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B92" s="32">
+      <c r="B92" s="25">
         <v>44925</v>
       </c>
-      <c r="C92" s="48"/>
-      <c r="D92" s="28"/>
-      <c r="E92" s="28"/>
-      <c r="F92" s="28"/>
-      <c r="G92" s="28"/>
-      <c r="H92" s="28"/>
-      <c r="I92" s="53"/>
+      <c r="C92" s="41"/>
+      <c r="D92" s="21"/>
+      <c r="E92" s="21"/>
+      <c r="F92" s="21"/>
+      <c r="G92" s="21"/>
+      <c r="H92" s="21"/>
+      <c r="I92" s="46"/>
       <c r="J92" s="1"/>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B93" s="32">
+      <c r="B93" s="25">
         <v>44926</v>
       </c>
-      <c r="C93" s="48"/>
-      <c r="D93" s="28"/>
-      <c r="E93" s="28"/>
-      <c r="F93" s="28"/>
-      <c r="G93" s="28"/>
-      <c r="H93" s="28"/>
-      <c r="I93" s="53"/>
+      <c r="C93" s="41"/>
+      <c r="D93" s="21"/>
+      <c r="E93" s="21"/>
+      <c r="F93" s="21"/>
+      <c r="G93" s="21"/>
+      <c r="H93" s="21"/>
+      <c r="I93" s="46"/>
       <c r="J93" s="1"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B94" s="32">
+      <c r="B94" s="25">
         <v>44927</v>
       </c>
-      <c r="C94" s="48"/>
-      <c r="D94" s="28"/>
-      <c r="E94" s="28"/>
-      <c r="F94" s="28"/>
-      <c r="G94" s="28"/>
-      <c r="H94" s="28"/>
-      <c r="I94" s="53"/>
+      <c r="C94" s="41"/>
+      <c r="D94" s="21"/>
+      <c r="E94" s="21"/>
+      <c r="F94" s="21"/>
+      <c r="G94" s="21"/>
+      <c r="H94" s="21"/>
+      <c r="I94" s="46"/>
       <c r="J94" s="1"/>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B95" s="32">
+      <c r="B95" s="25">
         <v>44928</v>
       </c>
-      <c r="C95" s="48"/>
-      <c r="D95" s="28"/>
-      <c r="E95" s="28"/>
-      <c r="F95" s="28"/>
-      <c r="G95" s="28"/>
-      <c r="H95" s="28"/>
-      <c r="I95" s="53"/>
+      <c r="C95" s="41"/>
+      <c r="D95" s="21"/>
+      <c r="E95" s="21"/>
+      <c r="F95" s="21"/>
+      <c r="G95" s="21"/>
+      <c r="H95" s="21"/>
+      <c r="I95" s="46"/>
       <c r="J95" s="1"/>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B96" s="32">
+      <c r="B96" s="25">
         <v>44929</v>
       </c>
-      <c r="C96" s="48"/>
-      <c r="D96" s="28"/>
-      <c r="E96" s="28"/>
-      <c r="F96" s="28"/>
-      <c r="G96" s="28"/>
-      <c r="H96" s="28"/>
-      <c r="I96" s="53"/>
+      <c r="C96" s="41"/>
+      <c r="D96" s="21"/>
+      <c r="E96" s="21"/>
+      <c r="F96" s="21"/>
+      <c r="G96" s="21"/>
+      <c r="H96" s="21"/>
+      <c r="I96" s="46"/>
       <c r="J96" s="1"/>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B97" s="32">
+      <c r="B97" s="25">
         <v>44930</v>
       </c>
-      <c r="C97" s="48"/>
-      <c r="D97" s="28"/>
-      <c r="E97" s="28"/>
-      <c r="F97" s="28"/>
-      <c r="G97" s="28"/>
-      <c r="H97" s="28"/>
-      <c r="I97" s="53"/>
+      <c r="C97" s="41"/>
+      <c r="D97" s="21"/>
+      <c r="E97" s="21"/>
+      <c r="F97" s="21"/>
+      <c r="G97" s="21"/>
+      <c r="H97" s="21"/>
+      <c r="I97" s="46"/>
       <c r="J97" s="1"/>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B98" s="32">
+      <c r="B98" s="25">
         <v>44931</v>
       </c>
-      <c r="C98" s="48"/>
-      <c r="D98" s="28"/>
-      <c r="E98" s="28"/>
-      <c r="F98" s="28"/>
-      <c r="G98" s="28"/>
-      <c r="H98" s="28"/>
-      <c r="I98" s="53"/>
+      <c r="C98" s="41"/>
+      <c r="D98" s="21"/>
+      <c r="E98" s="21"/>
+      <c r="F98" s="21"/>
+      <c r="G98" s="21"/>
+      <c r="H98" s="21"/>
+      <c r="I98" s="46"/>
       <c r="J98" s="1"/>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B99" s="32">
+      <c r="B99" s="25">
         <v>44932</v>
       </c>
-      <c r="C99" s="48"/>
-      <c r="D99" s="28"/>
-      <c r="E99" s="28"/>
-      <c r="F99" s="28"/>
-      <c r="G99" s="28"/>
-      <c r="H99" s="28"/>
-      <c r="I99" s="53"/>
+      <c r="C99" s="41"/>
+      <c r="D99" s="21"/>
+      <c r="E99" s="21"/>
+      <c r="F99" s="21"/>
+      <c r="G99" s="21"/>
+      <c r="H99" s="21"/>
+      <c r="I99" s="46"/>
       <c r="J99" s="1"/>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B100" s="32">
+      <c r="B100" s="25">
         <v>44933</v>
       </c>
-      <c r="C100" s="48"/>
-      <c r="D100" s="28"/>
-      <c r="E100" s="28"/>
-      <c r="F100" s="28"/>
-      <c r="G100" s="28"/>
-      <c r="H100" s="28"/>
-      <c r="I100" s="53"/>
+      <c r="C100" s="41"/>
+      <c r="D100" s="21"/>
+      <c r="E100" s="21"/>
+      <c r="F100" s="21"/>
+      <c r="G100" s="21"/>
+      <c r="H100" s="21"/>
+      <c r="I100" s="46"/>
       <c r="J100" s="1"/>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B101" s="32">
+      <c r="B101" s="25">
         <v>44934</v>
       </c>
-      <c r="C101" s="48"/>
-      <c r="D101" s="28"/>
-      <c r="E101" s="28"/>
-      <c r="F101" s="28"/>
-      <c r="G101" s="28"/>
-      <c r="H101" s="28"/>
-      <c r="I101" s="53"/>
+      <c r="C101" s="41"/>
+      <c r="D101" s="21"/>
+      <c r="E101" s="21"/>
+      <c r="F101" s="21"/>
+      <c r="G101" s="21"/>
+      <c r="H101" s="21"/>
+      <c r="I101" s="46"/>
       <c r="J101" s="1"/>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B102" s="32">
+      <c r="B102" s="25">
         <v>44935</v>
       </c>
-      <c r="C102" s="48"/>
-      <c r="D102" s="28"/>
-      <c r="E102" s="28"/>
-      <c r="F102" s="28"/>
-      <c r="G102" s="28"/>
-      <c r="H102" s="28"/>
-      <c r="I102" s="53"/>
+      <c r="C102" s="41"/>
+      <c r="D102" s="21"/>
+      <c r="E102" s="21"/>
+      <c r="F102" s="21"/>
+      <c r="G102" s="21"/>
+      <c r="H102" s="21"/>
+      <c r="I102" s="46"/>
       <c r="J102" s="1"/>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B103" s="32">
+      <c r="B103" s="25">
         <v>44936</v>
       </c>
-      <c r="C103" s="48"/>
-      <c r="D103" s="28"/>
-      <c r="E103" s="28"/>
-      <c r="F103" s="28"/>
-      <c r="G103" s="28"/>
-      <c r="H103" s="28"/>
-      <c r="I103" s="53"/>
+      <c r="C103" s="41"/>
+      <c r="D103" s="21"/>
+      <c r="E103" s="21"/>
+      <c r="F103" s="21"/>
+      <c r="G103" s="21"/>
+      <c r="H103" s="21"/>
+      <c r="I103" s="46"/>
       <c r="J103" s="1"/>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B104" s="32">
+      <c r="B104" s="25">
         <v>44937</v>
       </c>
-      <c r="C104" s="48"/>
-      <c r="D104" s="28"/>
-      <c r="E104" s="28"/>
-      <c r="F104" s="28"/>
-      <c r="G104" s="28"/>
-      <c r="H104" s="28"/>
-      <c r="I104" s="53"/>
+      <c r="C104" s="41"/>
+      <c r="D104" s="21"/>
+      <c r="E104" s="21"/>
+      <c r="F104" s="21"/>
+      <c r="G104" s="21"/>
+      <c r="H104" s="21"/>
+      <c r="I104" s="46"/>
       <c r="J104" s="1"/>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B105" s="32">
+      <c r="B105" s="25">
         <v>44938</v>
       </c>
-      <c r="C105" s="48"/>
-      <c r="D105" s="28"/>
-      <c r="E105" s="28"/>
-      <c r="F105" s="28"/>
-      <c r="G105" s="28"/>
-      <c r="H105" s="28"/>
-      <c r="I105" s="53"/>
+      <c r="C105" s="41"/>
+      <c r="D105" s="21"/>
+      <c r="E105" s="21"/>
+      <c r="F105" s="21"/>
+      <c r="G105" s="21"/>
+      <c r="H105" s="21"/>
+      <c r="I105" s="46"/>
       <c r="J105" s="1"/>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B106" s="32">
+      <c r="B106" s="25">
         <v>44939</v>
       </c>
-      <c r="C106" s="48"/>
-      <c r="D106" s="28"/>
-      <c r="E106" s="28"/>
-      <c r="F106" s="28"/>
-      <c r="G106" s="28"/>
-      <c r="H106" s="28"/>
-      <c r="I106" s="53"/>
+      <c r="C106" s="41"/>
+      <c r="D106" s="21"/>
+      <c r="E106" s="21"/>
+      <c r="F106" s="21"/>
+      <c r="G106" s="21"/>
+      <c r="H106" s="21"/>
+      <c r="I106" s="46"/>
       <c r="J106" s="1"/>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B107" s="32">
+      <c r="B107" s="25">
         <v>44940</v>
       </c>
-      <c r="C107" s="48"/>
-      <c r="D107" s="28"/>
-      <c r="E107" s="28"/>
-      <c r="F107" s="28"/>
-      <c r="G107" s="28"/>
-      <c r="H107" s="28"/>
-      <c r="I107" s="53"/>
+      <c r="C107" s="41"/>
+      <c r="D107" s="21"/>
+      <c r="E107" s="21"/>
+      <c r="F107" s="21"/>
+      <c r="G107" s="21"/>
+      <c r="H107" s="21"/>
+      <c r="I107" s="46"/>
       <c r="J107" s="1"/>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B108" s="32">
+      <c r="B108" s="25">
         <v>44941</v>
       </c>
-      <c r="C108" s="48"/>
-      <c r="D108" s="28"/>
-      <c r="E108" s="28"/>
-      <c r="F108" s="28"/>
-      <c r="G108" s="28"/>
-      <c r="H108" s="28"/>
-      <c r="I108" s="53"/>
+      <c r="C108" s="41"/>
+      <c r="D108" s="21"/>
+      <c r="E108" s="21"/>
+      <c r="F108" s="21"/>
+      <c r="G108" s="21"/>
+      <c r="H108" s="21"/>
+      <c r="I108" s="46"/>
       <c r="J108" s="1"/>
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B109" s="32">
+      <c r="B109" s="25">
         <v>44942</v>
       </c>
-      <c r="C109" s="48"/>
-      <c r="D109" s="28"/>
-      <c r="E109" s="28"/>
-      <c r="F109" s="28"/>
-      <c r="G109" s="28"/>
-      <c r="H109" s="28"/>
-      <c r="I109" s="53"/>
+      <c r="C109" s="41"/>
+      <c r="D109" s="21"/>
+      <c r="E109" s="21"/>
+      <c r="F109" s="21"/>
+      <c r="G109" s="21"/>
+      <c r="H109" s="21"/>
+      <c r="I109" s="46"/>
       <c r="J109" s="1"/>
     </row>
     <row r="110" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B110" s="40">
+      <c r="B110" s="33">
         <v>44943</v>
       </c>
-      <c r="C110" s="54"/>
-      <c r="D110" s="55"/>
-      <c r="E110" s="55"/>
-      <c r="F110" s="55"/>
-      <c r="G110" s="55"/>
-      <c r="H110" s="55"/>
-      <c r="I110" s="56"/>
-      <c r="J110" s="37" t="s">
+      <c r="C110" s="47"/>
+      <c r="D110" s="48"/>
+      <c r="E110" s="48"/>
+      <c r="F110" s="48"/>
+      <c r="G110" s="48"/>
+      <c r="H110" s="48"/>
+      <c r="I110" s="49"/>
+      <c r="J110" s="30" t="s">
         <v>50</v>
       </c>
     </row>

--- a/仕様書.xlsx
+++ b/仕様書.xlsx
@@ -530,7 +530,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -573,6 +573,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="40">
     <border>
@@ -1093,7 +1099,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1273,6 +1279,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1975,8 +1984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2110,7 +2119,7 @@
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B9" s="25">
+      <c r="B9" s="60">
         <v>44842</v>
       </c>
       <c r="C9" s="41"/>
@@ -2123,7 +2132,7 @@
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B10" s="25">
+      <c r="B10" s="60">
         <v>44843</v>
       </c>
       <c r="C10" s="41"/>
@@ -2201,7 +2210,7 @@
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B16" s="25">
+      <c r="B16" s="60">
         <v>44849</v>
       </c>
       <c r="C16" s="41"/>
@@ -2214,7 +2223,7 @@
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B17" s="25">
+      <c r="B17" s="60">
         <v>44850</v>
       </c>
       <c r="C17" s="41"/>
@@ -2292,7 +2301,7 @@
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B23" s="25">
+      <c r="B23" s="60">
         <v>44856</v>
       </c>
       <c r="C23" s="41"/>
@@ -2305,7 +2314,7 @@
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B24" s="25">
+      <c r="B24" s="60">
         <v>44857</v>
       </c>
       <c r="C24" s="41"/>
@@ -2383,7 +2392,7 @@
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B30" s="25">
+      <c r="B30" s="60">
         <v>44863</v>
       </c>
       <c r="C30" s="41"/>
@@ -2396,7 +2405,7 @@
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B31" s="25">
+      <c r="B31" s="60">
         <v>44864</v>
       </c>
       <c r="C31" s="41"/>
@@ -2448,7 +2457,7 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B35" s="25">
+      <c r="B35" s="60">
         <v>44868</v>
       </c>
       <c r="C35" s="41"/>
@@ -2476,7 +2485,7 @@
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B37" s="25">
+      <c r="B37" s="60">
         <v>44870</v>
       </c>
       <c r="C37" s="41"/>
@@ -2489,7 +2498,7 @@
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B38" s="25">
+      <c r="B38" s="60">
         <v>44871</v>
       </c>
       <c r="C38" s="41"/>
@@ -2567,7 +2576,7 @@
       <c r="J43" s="1"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B44" s="25">
+      <c r="B44" s="60">
         <v>44877</v>
       </c>
       <c r="C44" s="41"/>
@@ -2580,7 +2589,7 @@
       <c r="J44" s="1"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B45" s="25">
+      <c r="B45" s="60">
         <v>44878</v>
       </c>
       <c r="C45" s="41"/>
@@ -2658,7 +2667,7 @@
       <c r="J50" s="1"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B51" s="25">
+      <c r="B51" s="60">
         <v>44884</v>
       </c>
       <c r="C51" s="41"/>
@@ -2671,7 +2680,7 @@
       <c r="J51" s="1"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B52" s="25">
+      <c r="B52" s="60">
         <v>44885</v>
       </c>
       <c r="C52" s="41"/>
@@ -2710,7 +2719,7 @@
       <c r="J54" s="1"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B55" s="25">
+      <c r="B55" s="60">
         <v>44888</v>
       </c>
       <c r="C55" s="41"/>
@@ -2749,7 +2758,7 @@
       <c r="J57" s="1"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B58" s="25">
+      <c r="B58" s="60">
         <v>44891</v>
       </c>
       <c r="C58" s="41"/>
@@ -2762,7 +2771,7 @@
       <c r="J58" s="1"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B59" s="25">
+      <c r="B59" s="60">
         <v>44892</v>
       </c>
       <c r="C59" s="41"/>
@@ -2842,7 +2851,7 @@
       <c r="J64" s="1"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B65" s="25">
+      <c r="B65" s="60">
         <v>44898</v>
       </c>
       <c r="C65" s="41"/>
@@ -2855,7 +2864,7 @@
       <c r="J65" s="1"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B66" s="25">
+      <c r="B66" s="60">
         <v>44899</v>
       </c>
       <c r="C66" s="41"/>
@@ -2933,7 +2942,7 @@
       <c r="J71" s="1"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B72" s="25">
+      <c r="B72" s="60">
         <v>44905</v>
       </c>
       <c r="C72" s="41"/>
@@ -2946,7 +2955,7 @@
       <c r="J72" s="1"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B73" s="25">
+      <c r="B73" s="60">
         <v>44906</v>
       </c>
       <c r="C73" s="41"/>
@@ -3024,7 +3033,7 @@
       <c r="J78" s="1"/>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B79" s="25">
+      <c r="B79" s="60">
         <v>44912</v>
       </c>
       <c r="C79" s="41"/>
@@ -3037,7 +3046,7 @@
       <c r="J79" s="1"/>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B80" s="25">
+      <c r="B80" s="60">
         <v>44913</v>
       </c>
       <c r="C80" s="41"/>
@@ -3117,7 +3126,7 @@
       <c r="J85" s="1"/>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B86" s="25">
+      <c r="B86" s="60">
         <v>44919</v>
       </c>
       <c r="C86" s="41"/>
@@ -3130,7 +3139,7 @@
       <c r="J86" s="1"/>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B87" s="25">
+      <c r="B87" s="60">
         <v>44920</v>
       </c>
       <c r="C87" s="41"/>
@@ -3208,7 +3217,7 @@
       <c r="J92" s="1"/>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B93" s="25">
+      <c r="B93" s="60">
         <v>44926</v>
       </c>
       <c r="C93" s="41"/>
@@ -3221,7 +3230,7 @@
       <c r="J93" s="1"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B94" s="25">
+      <c r="B94" s="60">
         <v>44927</v>
       </c>
       <c r="C94" s="41"/>
@@ -3234,7 +3243,7 @@
       <c r="J94" s="1"/>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B95" s="25">
+      <c r="B95" s="60">
         <v>44928</v>
       </c>
       <c r="C95" s="41"/>
@@ -3299,7 +3308,7 @@
       <c r="J99" s="1"/>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B100" s="25">
+      <c r="B100" s="60">
         <v>44933</v>
       </c>
       <c r="C100" s="41"/>
@@ -3312,7 +3321,7 @@
       <c r="J100" s="1"/>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B101" s="25">
+      <c r="B101" s="60">
         <v>44934</v>
       </c>
       <c r="C101" s="41"/>
@@ -3390,7 +3399,7 @@
       <c r="J106" s="1"/>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B107" s="25">
+      <c r="B107" s="60">
         <v>44940</v>
       </c>
       <c r="C107" s="41"/>
@@ -3403,7 +3412,7 @@
       <c r="J107" s="1"/>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B108" s="25">
+      <c r="B108" s="60">
         <v>44941</v>
       </c>
       <c r="C108" s="41"/>

--- a/仕様書.xlsx
+++ b/仕様書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8712" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8712"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="74">
   <si>
     <t>モデル</t>
     <phoneticPr fontId="1"/>
@@ -472,6 +472,17 @@
     <rPh sb="3" eb="5">
       <t>サクセイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>に移転しました</t>
+    <rPh sb="1" eb="3">
+      <t>イテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/d/15h_WQfkmvKfej-wIwG-h5epJ_Zo3C5hSApIz4rARW6Q/edit#gid=1085923334</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1099,7 +1110,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1259,6 +1270,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1280,7 +1294,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1589,10 +1603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E33"/>
+  <dimension ref="B1:I33"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1600,17 +1614,33 @@
     <col min="2" max="2" width="11.8984375" customWidth="1"/>
     <col min="3" max="4" width="25.59765625" customWidth="1"/>
     <col min="5" max="5" width="7.19921875" customWidth="1"/>
+    <col min="8" max="8" width="13.296875" customWidth="1"/>
+    <col min="9" max="9" width="28.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="56" t="s">
+    <row r="1" spans="2:9" ht="52.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-    </row>
-    <row r="3" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+    </row>
+    <row r="3" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="9" t="s">
         <v>4</v>
       </c>
@@ -1624,15 +1654,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="53" t="s">
+    <row r="4" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="55"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="56"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -1646,7 +1676,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1658,7 +1688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1670,7 +1700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,7 +1712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
@@ -1694,7 +1724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>26</v>
       </c>
@@ -1704,21 +1734,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="57" t="s">
+    <row r="12" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B12" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="59"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
@@ -1728,7 +1758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
         <v>21</v>
       </c>
@@ -1740,25 +1770,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="8"/>
     </row>
     <row r="17" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="55"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="56"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B18" s="5"/>
@@ -1785,12 +1815,12 @@
       <c r="E21" s="8"/>
     </row>
     <row r="22" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B22" s="53" t="s">
+      <c r="B22" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="55"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="56"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B23" s="5" t="s">
@@ -1817,12 +1847,12 @@
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B26" s="53" t="s">
+      <c r="B26" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="56"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B27" s="5" t="s">
@@ -1881,7 +1911,8 @@
       <c r="E33" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="B1:H1"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="B2:E2"/>
@@ -1984,7 +2015,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -2119,7 +2150,7 @@
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B9" s="60">
+      <c r="B9" s="53">
         <v>44842</v>
       </c>
       <c r="C9" s="41"/>
@@ -2132,7 +2163,7 @@
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B10" s="60">
+      <c r="B10" s="53">
         <v>44843</v>
       </c>
       <c r="C10" s="41"/>
@@ -2210,7 +2241,7 @@
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B16" s="60">
+      <c r="B16" s="53">
         <v>44849</v>
       </c>
       <c r="C16" s="41"/>
@@ -2223,7 +2254,7 @@
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B17" s="60">
+      <c r="B17" s="53">
         <v>44850</v>
       </c>
       <c r="C17" s="41"/>
@@ -2301,7 +2332,7 @@
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B23" s="60">
+      <c r="B23" s="53">
         <v>44856</v>
       </c>
       <c r="C23" s="41"/>
@@ -2314,7 +2345,7 @@
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B24" s="60">
+      <c r="B24" s="53">
         <v>44857</v>
       </c>
       <c r="C24" s="41"/>
@@ -2392,7 +2423,7 @@
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B30" s="60">
+      <c r="B30" s="53">
         <v>44863</v>
       </c>
       <c r="C30" s="41"/>
@@ -2405,7 +2436,7 @@
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B31" s="60">
+      <c r="B31" s="53">
         <v>44864</v>
       </c>
       <c r="C31" s="41"/>
@@ -2457,7 +2488,7 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B35" s="60">
+      <c r="B35" s="53">
         <v>44868</v>
       </c>
       <c r="C35" s="41"/>
@@ -2485,7 +2516,7 @@
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B37" s="60">
+      <c r="B37" s="53">
         <v>44870</v>
       </c>
       <c r="C37" s="41"/>
@@ -2498,7 +2529,7 @@
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B38" s="60">
+      <c r="B38" s="53">
         <v>44871</v>
       </c>
       <c r="C38" s="41"/>
@@ -2576,7 +2607,7 @@
       <c r="J43" s="1"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B44" s="60">
+      <c r="B44" s="53">
         <v>44877</v>
       </c>
       <c r="C44" s="41"/>
@@ -2589,7 +2620,7 @@
       <c r="J44" s="1"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B45" s="60">
+      <c r="B45" s="53">
         <v>44878</v>
       </c>
       <c r="C45" s="41"/>
@@ -2667,7 +2698,7 @@
       <c r="J50" s="1"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B51" s="60">
+      <c r="B51" s="53">
         <v>44884</v>
       </c>
       <c r="C51" s="41"/>
@@ -2680,7 +2711,7 @@
       <c r="J51" s="1"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B52" s="60">
+      <c r="B52" s="53">
         <v>44885</v>
       </c>
       <c r="C52" s="41"/>
@@ -2719,7 +2750,7 @@
       <c r="J54" s="1"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B55" s="60">
+      <c r="B55" s="53">
         <v>44888</v>
       </c>
       <c r="C55" s="41"/>
@@ -2758,7 +2789,7 @@
       <c r="J57" s="1"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B58" s="60">
+      <c r="B58" s="53">
         <v>44891</v>
       </c>
       <c r="C58" s="41"/>
@@ -2771,7 +2802,7 @@
       <c r="J58" s="1"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B59" s="60">
+      <c r="B59" s="53">
         <v>44892</v>
       </c>
       <c r="C59" s="41"/>
@@ -2851,7 +2882,7 @@
       <c r="J64" s="1"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B65" s="60">
+      <c r="B65" s="53">
         <v>44898</v>
       </c>
       <c r="C65" s="41"/>
@@ -2864,7 +2895,7 @@
       <c r="J65" s="1"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B66" s="60">
+      <c r="B66" s="53">
         <v>44899</v>
       </c>
       <c r="C66" s="41"/>
@@ -2942,7 +2973,7 @@
       <c r="J71" s="1"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B72" s="60">
+      <c r="B72" s="53">
         <v>44905</v>
       </c>
       <c r="C72" s="41"/>
@@ -2955,7 +2986,7 @@
       <c r="J72" s="1"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B73" s="60">
+      <c r="B73" s="53">
         <v>44906</v>
       </c>
       <c r="C73" s="41"/>
@@ -3033,7 +3064,7 @@
       <c r="J78" s="1"/>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B79" s="60">
+      <c r="B79" s="53">
         <v>44912</v>
       </c>
       <c r="C79" s="41"/>
@@ -3046,7 +3077,7 @@
       <c r="J79" s="1"/>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B80" s="60">
+      <c r="B80" s="53">
         <v>44913</v>
       </c>
       <c r="C80" s="41"/>
@@ -3126,7 +3157,7 @@
       <c r="J85" s="1"/>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B86" s="60">
+      <c r="B86" s="53">
         <v>44919</v>
       </c>
       <c r="C86" s="41"/>
@@ -3139,7 +3170,7 @@
       <c r="J86" s="1"/>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B87" s="60">
+      <c r="B87" s="53">
         <v>44920</v>
       </c>
       <c r="C87" s="41"/>
@@ -3217,7 +3248,7 @@
       <c r="J92" s="1"/>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B93" s="60">
+      <c r="B93" s="53">
         <v>44926</v>
       </c>
       <c r="C93" s="41"/>
@@ -3230,7 +3261,7 @@
       <c r="J93" s="1"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B94" s="60">
+      <c r="B94" s="53">
         <v>44927</v>
       </c>
       <c r="C94" s="41"/>
@@ -3243,7 +3274,7 @@
       <c r="J94" s="1"/>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B95" s="60">
+      <c r="B95" s="53">
         <v>44928</v>
       </c>
       <c r="C95" s="41"/>
@@ -3308,7 +3339,7 @@
       <c r="J99" s="1"/>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B100" s="60">
+      <c r="B100" s="53">
         <v>44933</v>
       </c>
       <c r="C100" s="41"/>
@@ -3321,7 +3352,7 @@
       <c r="J100" s="1"/>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B101" s="60">
+      <c r="B101" s="53">
         <v>44934</v>
       </c>
       <c r="C101" s="41"/>
@@ -3399,7 +3430,7 @@
       <c r="J106" s="1"/>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B107" s="60">
+      <c r="B107" s="53">
         <v>44940</v>
       </c>
       <c r="C107" s="41"/>
@@ -3412,7 +3443,7 @@
       <c r="J107" s="1"/>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B108" s="60">
+      <c r="B108" s="53">
         <v>44941</v>
       </c>
       <c r="C108" s="41"/>

--- a/仕様書.xlsx
+++ b/仕様書.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\ローカルリポジトリ\sotsugyou_time_kato\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8712" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8712"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="86">
   <si>
     <t>しよーしょ</t>
   </si>
@@ -270,6 +270,24 @@
   </si>
   <si>
     <t>マスター〆切！！！</t>
+  </si>
+  <si>
+    <t>ルーレット</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>落下時エフェクト</t>
+    <rPh sb="0" eb="3">
+      <t>ラッカジ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>ドラムロール的な</t>
+    <rPh sb="6" eb="7">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
   </si>
 </sst>
 </file>
@@ -1213,19 +1231,19 @@
     <xf numFmtId="0" fontId="9" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1235,7 +1253,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="2">
     <dxf>
       <font>
         <b/>
@@ -1257,43 +1275,6 @@
       <fill>
         <patternFill>
           <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="1"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1508,14 +1489,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H1000"/>
+  <dimension ref="B1:H1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="25.5546875" customWidth="1"/>
     <col min="4" max="4" width="32.44140625" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
@@ -1526,12 +1509,12 @@
   <sheetData>
     <row r="1" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -1548,12 +1531,12 @@
       </c>
     </row>
     <row r="4" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="80"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="78"/>
     </row>
     <row r="5" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
@@ -1681,9 +1664,9 @@
       <c r="B15" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="80"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="78"/>
     </row>
     <row r="16" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="18" t="s">
@@ -1734,12 +1717,12 @@
       </c>
     </row>
     <row r="20" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="78" t="s">
+      <c r="B20" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="80"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="78"/>
     </row>
     <row r="21" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="18"/>
@@ -1766,12 +1749,12 @@
       <c r="E24" s="26"/>
     </row>
     <row r="25" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="78" t="s">
+      <c r="B25" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="79"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="80"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="78"/>
     </row>
     <row r="26" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="18" t="s">
@@ -1798,12 +1781,12 @@
       <c r="E28" s="27"/>
     </row>
     <row r="29" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="78" t="s">
+      <c r="B29" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="79"/>
-      <c r="D29" s="79"/>
-      <c r="E29" s="80"/>
+      <c r="C29" s="77"/>
+      <c r="D29" s="77"/>
+      <c r="E29" s="78"/>
     </row>
     <row r="30" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="18" t="s">
@@ -1854,41 +1837,57 @@
       <c r="E35" s="21"/>
     </row>
     <row r="36" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="26"/>
+    </row>
+    <row r="37" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="E37" s="26"/>
+    </row>
+    <row r="38" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="27"/>
-    </row>
-    <row r="37" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="78" t="s">
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="27"/>
+    </row>
+    <row r="39" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="79"/>
-      <c r="D37" s="79"/>
-      <c r="E37" s="80"/>
-    </row>
-    <row r="38" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="20"/>
-    </row>
-    <row r="39" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="21"/>
+      <c r="C39" s="77"/>
+      <c r="D39" s="77"/>
+      <c r="E39" s="78"/>
     </row>
     <row r="40" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="27"/>
-    </row>
-    <row r="41" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="20"/>
+    </row>
+    <row r="41" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="21"/>
+    </row>
+    <row r="42" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="27"/>
+    </row>
     <row r="43" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="44" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="45" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2847,10 +2846,12 @@
     <row r="998" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="999" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1000" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1001" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1002" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B39:E39"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B15:E15"/>
@@ -3943,7 +3944,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -3970,7 +3971,7 @@
       </c>
       <c r="D2" s="39">
         <f ca="1">TODAY()</f>
-        <v>44840</v>
+        <v>44874</v>
       </c>
       <c r="F2" s="40">
         <v>44866</v>
@@ -6333,10 +6334,10 @@
   </sheetData>
   <phoneticPr fontId="10"/>
   <conditionalFormatting sqref="B5:B110">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>TODAY()</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
